--- a/ShipControl3D结构简介.xlsx
+++ b/ShipControl3D结构简介.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ShipControl3D结构简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参考文献</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +83,181 @@
   </si>
   <si>
     <t>NMPCcontroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipGraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlotData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取mat文件中的数据，将数据存入到结构体中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中算法的枢纽，船舶模型、风浪流环境、控制器等都在该类的方法中进行作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船舶模型，即实现输入合力，输出船舶位置姿态以及速度的目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID控制器，输入：船舶位置姿态等，输出：推进器的推力与力矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMPC控制器，与PID控制器功能相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境最优艏向控制器，根据侧推的大小调整艏向，使得船舶侧推力最小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOPC(环境最优动力定位)，根据Fossen与其学生的文章进行编程，实现目的与OptController一样，只是方法不同，其方法 源于摆锤在重力作用下的运动原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波器，采用的是非线性无源滤波器，滤除船舶位置姿态的高频噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境观测器(估计器)，估计出除推进器对船舶作用外的所有力与力矩的和。目的：在NMPC控制器中计算推进器推力与力矩时需要用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面主程序，是菜单、按钮、图像的载体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置对话框，船舶控制的多种参数都在该对话框中进行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D动画，采用OpenGL技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用Matlab，画出各种数据的精确二维图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具，各个程序中各部分进行计算时，需要用到的通用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataStruct.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该文件存有主要的通用结构体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类及个别文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionDialog.ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt下绘制的设置对话框界面，与OptionDialog类一起使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSS中的DP_ForceRAO.mdl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MSS中的DP_ForceRAO.mdl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MSS中的DP_ForceRAO.mdl
+2.Fossen的《A NONLINEAR UNIFIED STATE-SPACE MODEL FOR SHIP MANEUVERING AND CONTROL IN A SEAWAY》
+3.谢业海的博士论文《海况变化时的船舶定点定位切换自适应控制研究》中第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《船舶动力定位》
+2.孙行衍的Matlab程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.上海交大王晓飞的博士论文《基于解析模型预测控制的欠驱动船舶路径跟踪控制研究》
+2.隋玉峰的硕士论文《非线性模型预测控制在动力定位中的应用研究》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Øivind K. Kjerstad的《Weather Optimal Positioning Control
+for Marine Surface Vessels》
+2.Fossen的《Nonlinear passive weather optimal positioning control (WOPC)》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《Trajectory Tracking Control of Nonlinear Full Actuated Ship with Disturbances》（2011）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Fossen的《handbook of marine craft hydrodynamics and motion control》
+2.《船舶动力定位》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MSS中的DP_ForceRAO.mdl
+2.Fossen的《A NONLINEAR UNIFIED STATE-SPACE MODEL FOR SHIP MANEUVERING AND CONTROL IN A SEAWAY》
+3.Fossen的《handbook of marine craft hydrodynamics and motion control》
+4.谢业海的博士论文《海况变化时的船舶定点定位切换自适应控制研究》中第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MSS中的DP_ForceRAO.mdl
+2.Fossen的《handbook of marine craft hydrodynamics and motion control》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Miyazaki《A General Approach for DP Weathervane Control》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,9 +304,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,103 +662,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
